--- a/ExcelExamples/PCAExample.xlsx
+++ b/ExcelExamples/PCAExample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Curves" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Curves!$C$2:$C$251</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -745,11 +745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="18817408"/>
-        <c:axId val="242908544"/>
+        <c:axId val="163481856"/>
+        <c:axId val="163500032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18817408"/>
+        <c:axId val="163481856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -759,12 +759,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242908544"/>
+        <c:crossAx val="163500032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="242908544"/>
+        <c:axId val="163500032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="18817408"/>
+        <c:crossAx val="163481856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1121,13 +1121,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:W251"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
@@ -18137,17 +18137,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="17" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18235,14 +18235,6 @@
       <c r="V1">
         <f>Curves!W2</f>
         <v>10959</v>
-      </c>
-      <c r="W1" t="e">
-        <f>Curves!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X1" t="e">
-        <f>Curves!#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
@@ -20179,7 +20171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -20190,91 +20182,70 @@
         <v>181</v>
       </c>
       <c r="B2">
-        <f t="array" aca="1" ref="B2:W24" ca="1">_xll.QSA.PCAFromCurves(Curves!C3:W251,TRUE)</f>
+        <f t="array" ref="B2:W24">_xll.QSA.PCAFromCurves(Curves!C3:W251,TRUE)</f>
         <v>3.1770618648193416E-2</v>
       </c>
       <c r="C2">
-        <f ca="1"/>
         <v>-0.21006091673486024</v>
       </c>
       <c r="D2">
-        <f ca="1"/>
         <v>0.91924504395482465</v>
       </c>
       <c r="E2">
-        <f ca="1"/>
         <v>-3.1656812736227086E-2</v>
       </c>
       <c r="F2">
-        <f ca="1"/>
         <v>6.9762857767526429E-2</v>
       </c>
       <c r="G2">
-        <f ca="1"/>
         <v>-0.16865232638009156</v>
       </c>
       <c r="H2">
-        <f ca="1"/>
         <v>3.305936346363126E-2</v>
       </c>
       <c r="I2">
-        <f ca="1"/>
         <v>-0.25196753769075259</v>
       </c>
       <c r="J2">
-        <f ca="1"/>
         <v>7.125146212069336E-2</v>
       </c>
       <c r="K2">
-        <f ca="1"/>
         <v>-5.5834620229086598E-2</v>
       </c>
       <c r="L2">
-        <f ca="1"/>
         <v>1.0565298207035558E-2</v>
       </c>
       <c r="M2">
-        <f ca="1"/>
         <v>-5.2692167378657288E-3</v>
       </c>
       <c r="N2">
-        <f ca="1"/>
         <v>2.477595137865031E-2</v>
       </c>
       <c r="O2">
-        <f ca="1"/>
         <v>-8.1299874579991039E-3</v>
       </c>
       <c r="P2">
-        <f ca="1"/>
         <v>1.7254340701694477E-2</v>
       </c>
       <c r="Q2">
-        <f ca="1"/>
         <v>-1.230257041214596E-2</v>
       </c>
       <c r="R2">
-        <f ca="1"/>
         <v>1.110624290937373E-2</v>
       </c>
       <c r="S2">
-        <f ca="1"/>
         <v>1.3412923540176837E-2</v>
       </c>
       <c r="T2">
-        <f ca="1"/>
         <v>2.7744476541743994E-2</v>
       </c>
       <c r="U2">
-        <f ca="1"/>
         <v>2.0456295302123336E-2</v>
       </c>
       <c r="V2">
-        <f ca="1"/>
         <v>-2.5024750612182441E-3</v>
       </c>
       <c r="W2">
-        <f ca="1"/>
         <v>1.1045448007445317E-3</v>
       </c>
     </row>
@@ -20283,91 +20254,69 @@
         <v>273</v>
       </c>
       <c r="B3">
-        <f ca="1"/>
         <v>0.10354249915718648</v>
       </c>
       <c r="C3">
-        <f ca="1"/>
         <v>-0.27476415549235417</v>
       </c>
       <c r="D3">
-        <f ca="1"/>
         <v>0.18910555805138832</v>
       </c>
       <c r="E3">
-        <f ca="1"/>
         <v>-0.11396439700563678</v>
       </c>
       <c r="F3">
-        <f ca="1"/>
         <v>-0.36769936136056347</v>
       </c>
       <c r="G3">
-        <f ca="1"/>
         <v>0.14194060962979482</v>
       </c>
       <c r="H3">
-        <f ca="1"/>
         <v>-3.2687731290036742E-2</v>
       </c>
       <c r="I3">
-        <f ca="1"/>
         <v>0.56696041839389799</v>
       </c>
       <c r="J3">
-        <f ca="1"/>
         <v>-0.10370324256883846</v>
       </c>
       <c r="K3">
-        <f ca="1"/>
         <v>0.46518245812243642</v>
       </c>
       <c r="L3">
-        <f ca="1"/>
         <v>-0.27068866254815993</v>
       </c>
       <c r="M3">
-        <f ca="1"/>
         <v>9.4311566859666476E-2</v>
       </c>
       <c r="N3">
-        <f ca="1"/>
         <v>-7.4063782126118999E-2</v>
       </c>
       <c r="O3">
-        <f ca="1"/>
         <v>0.15530916489314178</v>
       </c>
       <c r="P3">
-        <f ca="1"/>
         <v>-0.18402705608198636</v>
       </c>
       <c r="Q3">
-        <f ca="1"/>
         <v>0.10988365360049351</v>
       </c>
       <c r="R3">
-        <f ca="1"/>
         <v>1.4238929451062964E-2</v>
       </c>
       <c r="S3">
-        <f ca="1"/>
         <v>-4.3736158681624573E-2</v>
       </c>
       <c r="T3">
-        <f ca="1"/>
         <v>4.3607326334017442E-3</v>
       </c>
       <c r="U3">
-        <f ca="1"/>
         <v>-1.3219163047778955E-2</v>
       </c>
       <c r="V3">
-        <f ca="1"/>
         <v>1.7701595154781175E-4</v>
       </c>
       <c r="W3">
-        <f ca="1"/>
         <v>1.9158720084072909E-4</v>
       </c>
     </row>
@@ -20376,91 +20325,69 @@
         <v>365</v>
       </c>
       <c r="B4">
-        <f ca="1"/>
         <v>0.16288995740018686</v>
       </c>
       <c r="C4">
-        <f ca="1"/>
         <v>-0.31264506460660996</v>
       </c>
       <c r="D4">
-        <f ca="1"/>
         <v>-8.8832845113327001E-3</v>
       </c>
       <c r="E4">
-        <f ca="1"/>
         <v>-0.10601242168189601</v>
       </c>
       <c r="F4">
-        <f ca="1"/>
         <v>-0.29796430519602107</v>
       </c>
       <c r="G4">
-        <f ca="1"/>
         <v>0.14771837078559097</v>
       </c>
       <c r="H4">
-        <f ca="1"/>
         <v>4.8887487488266788E-2</v>
       </c>
       <c r="I4">
-        <f ca="1"/>
         <v>0.22822943253474942</v>
       </c>
       <c r="J4">
-        <f ca="1"/>
         <v>5.9829256901355883E-2</v>
       </c>
       <c r="K4">
-        <f ca="1"/>
         <v>-0.2407226834244143</v>
       </c>
       <c r="L4">
-        <f ca="1"/>
         <v>0.19933206653435664</v>
       </c>
       <c r="M4">
-        <f ca="1"/>
         <v>-8.9772576961070674E-2</v>
       </c>
       <c r="N4">
-        <f ca="1"/>
         <v>8.0581939440461325E-2</v>
       </c>
       <c r="O4">
-        <f ca="1"/>
         <v>-0.18851805159322724</v>
       </c>
       <c r="P4">
-        <f ca="1"/>
         <v>0.65237001839412989</v>
       </c>
       <c r="Q4">
-        <f ca="1"/>
         <v>-0.22461553338878223</v>
       </c>
       <c r="R4">
-        <f ca="1"/>
         <v>-0.12713559795208376</v>
       </c>
       <c r="S4">
-        <f ca="1"/>
         <v>0.18316879184875667</v>
       </c>
       <c r="T4">
-        <f ca="1"/>
         <v>-0.14492981577708861</v>
       </c>
       <c r="U4">
-        <f ca="1"/>
         <v>3.4520488166697096E-2</v>
       </c>
       <c r="V4">
-        <f ca="1"/>
         <v>4.3669482109353272E-3</v>
       </c>
       <c r="W4">
-        <f ca="1"/>
         <v>2.714010344991784E-5</v>
       </c>
     </row>
@@ -20469,91 +20396,69 @@
         <v>455</v>
       </c>
       <c r="B5">
-        <f ca="1"/>
         <v>0.20046802057957785</v>
       </c>
       <c r="C5">
-        <f ca="1"/>
         <v>-0.33289015079232359</v>
       </c>
       <c r="D5">
-        <f ca="1"/>
         <v>-9.931385712827466E-2</v>
       </c>
       <c r="E5">
-        <f ca="1"/>
         <v>-9.343251225354969E-2</v>
       </c>
       <c r="F5">
-        <f ca="1"/>
         <v>-0.21921080027303408</v>
       </c>
       <c r="G5">
-        <f ca="1"/>
         <v>0.14697509636476502</v>
       </c>
       <c r="H5">
-        <f ca="1"/>
         <v>4.0459891274334484E-2</v>
       </c>
       <c r="I5">
-        <f ca="1"/>
         <v>-8.4366442666105546E-2</v>
       </c>
       <c r="J5">
-        <f ca="1"/>
         <v>0.15159647533224879</v>
       </c>
       <c r="K5">
-        <f ca="1"/>
         <v>-0.32395394143530398</v>
       </c>
       <c r="L5">
-        <f ca="1"/>
         <v>0.21930594468619624</v>
       </c>
       <c r="M5">
-        <f ca="1"/>
         <v>2.1154210387593769E-2</v>
       </c>
       <c r="N5">
-        <f ca="1"/>
         <v>6.4026158247500103E-2</v>
       </c>
       <c r="O5">
-        <f ca="1"/>
         <v>-0.10431701812691692</v>
       </c>
       <c r="P5">
-        <f ca="1"/>
         <v>-0.28545972195045988</v>
       </c>
       <c r="Q5">
-        <f ca="1"/>
         <v>7.8221368551399204E-2</v>
       </c>
       <c r="R5">
-        <f ca="1"/>
         <v>4.8669122862479104E-2</v>
       </c>
       <c r="S5">
-        <f ca="1"/>
         <v>-0.51151324833405898</v>
       </c>
       <c r="T5">
-        <f ca="1"/>
         <v>0.42227783547015818</v>
       </c>
       <c r="U5">
-        <f ca="1"/>
         <v>-0.17395223370827545</v>
       </c>
       <c r="V5">
-        <f ca="1"/>
         <v>-1.8552184899096109E-2</v>
       </c>
       <c r="W5">
-        <f ca="1"/>
         <v>1.6384677296263129E-5</v>
       </c>
     </row>
@@ -20562,91 +20467,69 @@
         <v>546</v>
       </c>
       <c r="B6">
-        <f ca="1"/>
         <v>0.22212311927624068</v>
       </c>
       <c r="C6">
-        <f ca="1"/>
         <v>-0.31532051709814729</v>
       </c>
       <c r="D6">
-        <f ca="1"/>
         <v>-0.13767542334237778</v>
       </c>
       <c r="E6">
-        <f ca="1"/>
         <v>-5.3482429507948188E-2</v>
       </c>
       <c r="F6">
-        <f ca="1"/>
         <v>-8.6730365794874309E-2</v>
       </c>
       <c r="G6">
-        <f ca="1"/>
         <v>5.343434951138798E-2</v>
       </c>
       <c r="H6">
-        <f ca="1"/>
         <v>1.6990254366279652E-2</v>
       </c>
       <c r="I6">
-        <f ca="1"/>
         <v>-0.19983134872896793</v>
       </c>
       <c r="J6">
-        <f ca="1"/>
         <v>4.9966686631709313E-2</v>
       </c>
       <c r="K6">
-        <f ca="1"/>
         <v>-0.12843480705266283</v>
       </c>
       <c r="L6">
-        <f ca="1"/>
         <v>5.6862554243937921E-2</v>
       </c>
       <c r="M6">
-        <f ca="1"/>
         <v>-7.706683436418232E-3</v>
       </c>
       <c r="N6">
-        <f ca="1"/>
         <v>6.2602012101254595E-3</v>
       </c>
       <c r="O6">
-        <f ca="1"/>
         <v>5.0712717126241653E-2</v>
       </c>
       <c r="P6">
-        <f ca="1"/>
         <v>-0.3713974048491106</v>
       </c>
       <c r="Q6">
-        <f ca="1"/>
         <v>0.11216346254838218</v>
       </c>
       <c r="R6">
-        <f ca="1"/>
         <v>0.17043535619339495</v>
       </c>
       <c r="S6">
-        <f ca="1"/>
         <v>0.35776098935661071</v>
       </c>
       <c r="T6">
-        <f ca="1"/>
         <v>-0.23755123813160522</v>
       </c>
       <c r="U6">
-        <f ca="1"/>
         <v>0.61449493944915401</v>
       </c>
       <c r="V6">
-        <f ca="1"/>
         <v>0.11105161752295213</v>
       </c>
       <c r="W6">
-        <f ca="1"/>
         <v>1.014242580579591E-5</v>
       </c>
     </row>
@@ -20655,91 +20538,69 @@
         <v>638</v>
       </c>
       <c r="B7">
-        <f ca="1"/>
         <v>0.23526333890128318</v>
       </c>
       <c r="C7">
-        <f ca="1"/>
         <v>-0.29005280427243862</v>
       </c>
       <c r="D7">
-        <f ca="1"/>
         <v>-0.1281577464997683</v>
       </c>
       <c r="E7">
-        <f ca="1"/>
         <v>-1.6593751295184301E-2</v>
       </c>
       <c r="F7">
-        <f ca="1"/>
         <v>4.1050570139911945E-2</v>
       </c>
       <c r="G7">
-        <f ca="1"/>
         <v>-6.8222213306024432E-2</v>
       </c>
       <c r="H7">
-        <f ca="1"/>
         <v>-6.9199570807487705E-3</v>
       </c>
       <c r="I7">
-        <f ca="1"/>
         <v>-0.22983164975866868</v>
       </c>
       <c r="J7">
-        <f ca="1"/>
         <v>-1.9866644468819014E-2</v>
       </c>
       <c r="K7">
-        <f ca="1"/>
         <v>5.3846093010745957E-2</v>
       </c>
       <c r="L7">
-        <f ca="1"/>
         <v>-5.2666319130853623E-2</v>
       </c>
       <c r="M7">
-        <f ca="1"/>
         <v>2.2671028098127505E-2</v>
       </c>
       <c r="N7">
-        <f ca="1"/>
         <v>-6.5059643325010852E-2</v>
       </c>
       <c r="O7">
-        <f ca="1"/>
         <v>6.0695065188057069E-2</v>
       </c>
       <c r="P7">
-        <f ca="1"/>
         <v>-0.11493720516112327</v>
       </c>
       <c r="Q7">
-        <f ca="1"/>
         <v>-1.2156479091062216E-2</v>
       </c>
       <c r="R7">
-        <f ca="1"/>
         <v>8.9679863890477204E-2</v>
       </c>
       <c r="S7">
-        <f ca="1"/>
         <v>0.27781576834673688</v>
       </c>
       <c r="T7">
-        <f ca="1"/>
         <v>-0.28871601720103629</v>
       </c>
       <c r="U7">
-        <f ca="1"/>
         <v>-0.59013840190390965</v>
       </c>
       <c r="V7">
-        <f ca="1"/>
         <v>-0.48980581504966653</v>
       </c>
       <c r="W7">
-        <f ca="1"/>
         <v>7.5421951719665755E-6</v>
       </c>
     </row>
@@ -20748,91 +20609,69 @@
         <v>732</v>
       </c>
       <c r="B8">
-        <f ca="1"/>
         <v>0.24239772127005668</v>
       </c>
       <c r="C8">
-        <f ca="1"/>
         <v>-0.26386676272835635</v>
       </c>
       <c r="D8">
-        <f ca="1"/>
         <v>-0.13905887727282512</v>
       </c>
       <c r="E8">
-        <f ca="1"/>
         <v>1.633785723428554E-2</v>
       </c>
       <c r="F8">
-        <f ca="1"/>
         <v>0.13507082146642491</v>
       </c>
       <c r="G8">
-        <f ca="1"/>
         <v>-0.15415007805069944</v>
       </c>
       <c r="H8">
-        <f ca="1"/>
         <v>-1.1784358217161497E-2</v>
       </c>
       <c r="I8">
-        <f ca="1"/>
         <v>-0.22478041955691652</v>
       </c>
       <c r="J8">
-        <f ca="1"/>
         <v>-7.2661015413331656E-2</v>
       </c>
       <c r="K8">
-        <f ca="1"/>
         <v>0.20316754577127183</v>
       </c>
       <c r="L8">
-        <f ca="1"/>
         <v>-0.12656742069805518</v>
       </c>
       <c r="M8">
-        <f ca="1"/>
         <v>3.1289286396885878E-2</v>
       </c>
       <c r="N8">
-        <f ca="1"/>
         <v>-6.048765735983886E-2</v>
       </c>
       <c r="O8">
-        <f ca="1"/>
         <v>4.7617431602779314E-2</v>
       </c>
       <c r="P8">
-        <f ca="1"/>
         <v>0.1306753101663877</v>
       </c>
       <c r="Q8">
-        <f ca="1"/>
         <v>-1.7761145369480178E-2</v>
       </c>
       <c r="R8">
-        <f ca="1"/>
         <v>-6.3009966335642667E-2</v>
       </c>
       <c r="S8">
-        <f ca="1"/>
         <v>-3.1314841912988951E-2</v>
       </c>
       <c r="T8">
-        <f ca="1"/>
         <v>-1.9446682793756782E-2</v>
       </c>
       <c r="U8">
-        <f ca="1"/>
         <v>-0.26510134624533327</v>
       </c>
       <c r="V8">
-        <f ca="1"/>
         <v>0.77256808612630268</v>
       </c>
       <c r="W8">
-        <f ca="1"/>
         <v>3.97164197296327E-6</v>
       </c>
     </row>
@@ -20841,91 +20680,69 @@
         <v>1096</v>
       </c>
       <c r="B9">
-        <f ca="1"/>
         <v>0.24621905070339453</v>
       </c>
       <c r="C9">
-        <f ca="1"/>
         <v>-0.23545469382040576</v>
       </c>
       <c r="D9">
-        <f ca="1"/>
         <v>-0.15818882365727466</v>
       </c>
       <c r="E9">
-        <f ca="1"/>
         <v>3.8100967727545502E-2</v>
       </c>
       <c r="F9">
-        <f ca="1"/>
         <v>0.20700984083372306</v>
       </c>
       <c r="G9">
-        <f ca="1"/>
         <v>-0.22549053470597843</v>
       </c>
       <c r="H9">
-        <f ca="1"/>
         <v>-1.6937952633896716E-2</v>
       </c>
       <c r="I9">
-        <f ca="1"/>
         <v>-0.18941448991845763</v>
       </c>
       <c r="J9">
-        <f ca="1"/>
         <v>-9.4896560839180105E-2</v>
       </c>
       <c r="K9">
-        <f ca="1"/>
         <v>0.30420831747728316</v>
       </c>
       <c r="L9">
-        <f ca="1"/>
         <v>-0.20006570513434205</v>
       </c>
       <c r="M9">
-        <f ca="1"/>
         <v>4.7838915396668291E-2</v>
       </c>
       <c r="N9">
-        <f ca="1"/>
         <v>-7.8528852049504924E-2</v>
       </c>
       <c r="O9">
-        <f ca="1"/>
         <v>1.7172378244774713E-2</v>
       </c>
       <c r="P9">
-        <f ca="1"/>
         <v>0.30973807924627694</v>
       </c>
       <c r="Q9">
-        <f ca="1"/>
         <v>-7.0093979465994591E-2</v>
       </c>
       <c r="R9">
-        <f ca="1"/>
         <v>-0.14427529168434081</v>
       </c>
       <c r="S9">
-        <f ca="1"/>
         <v>-0.26286541807096947</v>
       </c>
       <c r="T9">
-        <f ca="1"/>
         <v>0.27362638668449568</v>
       </c>
       <c r="U9">
-        <f ca="1"/>
         <v>0.40400072308881957</v>
       </c>
       <c r="V9">
-        <f ca="1"/>
         <v>-0.38525457502507293</v>
       </c>
       <c r="W9">
-        <f ca="1"/>
         <v>1.9572991792703831E-6</v>
       </c>
     </row>
@@ -20934,91 +20751,69 @@
         <v>1461</v>
       </c>
       <c r="B10">
-        <f ca="1"/>
         <v>0.24252222472087712</v>
       </c>
       <c r="C10">
-        <f ca="1"/>
         <v>-0.11095953636221353</v>
       </c>
       <c r="D10">
-        <f ca="1"/>
         <v>-3.6153505508086494E-3</v>
       </c>
       <c r="E10">
-        <f ca="1"/>
         <v>0.10518226560201145</v>
       </c>
       <c r="F10">
-        <f ca="1"/>
         <v>0.47778375736701995</v>
       </c>
       <c r="G10">
-        <f ca="1"/>
         <v>-0.45270263708470376</v>
       </c>
       <c r="H10">
-        <f ca="1"/>
         <v>-8.5939780217032399E-2</v>
       </c>
       <c r="I10">
-        <f ca="1"/>
         <v>0.59659519739010625</v>
       </c>
       <c r="J10">
-        <f ca="1"/>
         <v>5.4859475676646424E-2</v>
       </c>
       <c r="K10">
-        <f ca="1"/>
         <v>-0.24401785751916574</v>
       </c>
       <c r="L10">
-        <f ca="1"/>
         <v>0.13315685214244286</v>
       </c>
       <c r="M10">
-        <f ca="1"/>
         <v>-8.7827555329478335E-2</v>
       </c>
       <c r="N10">
-        <f ca="1"/>
         <v>0.11110693744401481</v>
       </c>
       <c r="O10">
-        <f ca="1"/>
         <v>-2.2141093681306342E-3</v>
       </c>
       <c r="P10">
-        <f ca="1"/>
         <v>-0.13789383481143297</v>
       </c>
       <c r="Q10">
-        <f ca="1"/>
         <v>3.2848840916255229E-2</v>
       </c>
       <c r="R10">
-        <f ca="1"/>
         <v>-1.1754914775498851E-3</v>
       </c>
       <c r="S10">
-        <f ca="1"/>
         <v>2.3028392171120699E-2</v>
       </c>
       <c r="T10">
-        <f ca="1"/>
         <v>-1.171988043284884E-2</v>
       </c>
       <c r="U10">
-        <f ca="1"/>
         <v>-1.0932110587510197E-2</v>
       </c>
       <c r="V10">
-        <f ca="1"/>
         <v>5.9524381706869411E-3</v>
       </c>
       <c r="W10">
-        <f ca="1"/>
         <v>1.4295723464303343E-6</v>
       </c>
     </row>
@@ -21027,91 +20822,69 @@
         <v>1826</v>
       </c>
       <c r="B11">
-        <f ca="1"/>
         <v>0.26518218227362156</v>
       </c>
       <c r="C11">
-        <f ca="1"/>
         <v>5.2254745343794165E-2</v>
       </c>
       <c r="D11">
-        <f ca="1"/>
         <v>8.2814947905617553E-2</v>
       </c>
       <c r="E11">
-        <f ca="1"/>
         <v>0.20657413669844568</v>
       </c>
       <c r="F11">
-        <f ca="1"/>
         <v>0.22503724603463296</v>
       </c>
       <c r="G11">
-        <f ca="1"/>
         <v>0.47441452573845272</v>
       </c>
       <c r="H11">
-        <f ca="1"/>
         <v>0.12446259343785657</v>
       </c>
       <c r="I11">
-        <f ca="1"/>
         <v>-1.4631833175683262E-2</v>
       </c>
       <c r="J11">
-        <f ca="1"/>
         <v>-5.2448332643365438E-2</v>
       </c>
       <c r="K11">
-        <f ca="1"/>
         <v>0.18539185022932686</v>
       </c>
       <c r="L11">
-        <f ca="1"/>
         <v>1.511623786725391E-2</v>
       </c>
       <c r="M11">
-        <f ca="1"/>
         <v>-0.67918031130754442</v>
       </c>
       <c r="N11">
-        <f ca="1"/>
         <v>0.1572074307821324</v>
       </c>
       <c r="O11">
-        <f ca="1"/>
         <v>-4.7320602218471945E-2</v>
       </c>
       <c r="P11">
-        <f ca="1"/>
         <v>-0.11149774535391015</v>
       </c>
       <c r="Q11">
-        <f ca="1"/>
         <v>2.1374930685785884E-3</v>
       </c>
       <c r="R11">
-        <f ca="1"/>
         <v>-0.21791174498911964</v>
       </c>
       <c r="S11">
-        <f ca="1"/>
         <v>-3.0762730122277505E-3</v>
       </c>
       <c r="T11">
-        <f ca="1"/>
         <v>7.9800214475617744E-3</v>
       </c>
       <c r="U11">
-        <f ca="1"/>
         <v>-1.4701590496363177E-2</v>
       </c>
       <c r="V11">
-        <f ca="1"/>
         <v>-1.4171351754686378E-2</v>
       </c>
       <c r="W11">
-        <f ca="1"/>
         <v>1.3271723685500051E-6</v>
       </c>
     </row>
@@ -21120,91 +20893,69 @@
         <v>2191</v>
       </c>
       <c r="B12">
-        <f ca="1"/>
         <v>0.25973384767915553</v>
       </c>
       <c r="C12">
-        <f ca="1"/>
         <v>0.10227522518596749</v>
       </c>
       <c r="D12">
-        <f ca="1"/>
         <v>7.5072707091082047E-2</v>
       </c>
       <c r="E12">
-        <f ca="1"/>
         <v>0.20308648572542767</v>
       </c>
       <c r="F12">
-        <f ca="1"/>
         <v>0.21434406412149679</v>
       </c>
       <c r="G12">
-        <f ca="1"/>
         <v>0.32738322503937944</v>
       </c>
       <c r="H12">
-        <f ca="1"/>
         <v>0.10136983733398534</v>
       </c>
       <c r="I12">
-        <f ca="1"/>
         <v>7.6939545698317111E-2</v>
       </c>
       <c r="J12">
-        <f ca="1"/>
         <v>-3.6274199373726897E-2</v>
       </c>
       <c r="K12">
-        <f ca="1"/>
         <v>-2.8339112942144577E-2</v>
       </c>
       <c r="L12">
-        <f ca="1"/>
         <v>-4.8436496314434127E-2</v>
       </c>
       <c r="M12">
-        <f ca="1"/>
         <v>0.18184372057965026</v>
       </c>
       <c r="N12">
-        <f ca="1"/>
         <v>-9.3924504990952118E-2</v>
       </c>
       <c r="O12">
-        <f ca="1"/>
         <v>3.7120498682480407E-2</v>
       </c>
       <c r="P12">
-        <f ca="1"/>
         <v>0.22686837425885875</v>
       </c>
       <c r="Q12">
-        <f ca="1"/>
         <v>-4.5012767307395361E-2</v>
       </c>
       <c r="R12">
-        <f ca="1"/>
         <v>0.77064688791995994</v>
       </c>
       <c r="S12">
-        <f ca="1"/>
         <v>-0.10161660454178864</v>
       </c>
       <c r="T12">
-        <f ca="1"/>
         <v>8.1436057790010789E-3</v>
       </c>
       <c r="U12">
-        <f ca="1"/>
         <v>9.7095848026888636E-3</v>
       </c>
       <c r="V12">
-        <f ca="1"/>
         <v>1.6398791746348597E-2</v>
       </c>
       <c r="W12">
-        <f ca="1"/>
         <v>1.0742424087149385E-6</v>
       </c>
     </row>
@@ -21213,91 +20964,69 @@
         <v>2559</v>
       </c>
       <c r="B13">
-        <f ca="1"/>
         <v>0.25249038281119679</v>
       </c>
       <c r="C13">
-        <f ca="1"/>
         <v>9.6707042630755163E-2</v>
       </c>
       <c r="D13">
-        <f ca="1"/>
         <v>7.8310845843586316E-2</v>
       </c>
       <c r="E13">
-        <f ca="1"/>
         <v>0.18693724825045135</v>
       </c>
       <c r="F13">
-        <f ca="1"/>
         <v>0.19301580699723062</v>
       </c>
       <c r="G13">
-        <f ca="1"/>
         <v>0.34624125508102233</v>
       </c>
       <c r="H13">
-        <f ca="1"/>
         <v>0.17500370961651421</v>
       </c>
       <c r="I13">
-        <f ca="1"/>
         <v>4.9925813981131995E-2</v>
       </c>
       <c r="J13">
-        <f ca="1"/>
         <v>5.8143852954019873E-2</v>
       </c>
       <c r="K13">
-        <f ca="1"/>
         <v>-0.15148121583951252</v>
       </c>
       <c r="L13">
-        <f ca="1"/>
         <v>-2.6577570132168989E-2</v>
       </c>
       <c r="M13">
-        <f ca="1"/>
         <v>0.60148662525020846</v>
       </c>
       <c r="N13">
-        <f ca="1"/>
         <v>-0.16449904696649184</v>
       </c>
       <c r="O13">
-        <f ca="1"/>
         <v>1.6518559343083245E-3</v>
       </c>
       <c r="P13">
-        <f ca="1"/>
         <v>-7.6273857408173093E-2</v>
       </c>
       <c r="Q13">
-        <f ca="1"/>
         <v>3.1471004111125092E-2</v>
       </c>
       <c r="R13">
-        <f ca="1"/>
         <v>-0.51451410502213113</v>
       </c>
       <c r="S13">
-        <f ca="1"/>
         <v>8.3343353380441298E-2</v>
       </c>
       <c r="T13">
-        <f ca="1"/>
         <v>-3.3951589542348601E-2</v>
       </c>
       <c r="U13">
-        <f ca="1"/>
         <v>5.7464556509500171E-3</v>
       </c>
       <c r="V13">
-        <f ca="1"/>
         <v>-3.7472516057766997E-3</v>
       </c>
       <c r="W13">
-        <f ca="1"/>
         <v>7.3841774143531805E-7</v>
       </c>
     </row>
@@ -21306,91 +21035,69 @@
         <v>2923</v>
       </c>
       <c r="B14">
-        <f ca="1"/>
         <v>0.23819211868978621</v>
       </c>
       <c r="C14">
-        <f ca="1"/>
         <v>0.16694492631550659</v>
       </c>
       <c r="D14">
-        <f ca="1"/>
         <v>7.8252853462501257E-2</v>
       </c>
       <c r="E14">
-        <f ca="1"/>
         <v>8.4177817939981581E-2</v>
       </c>
       <c r="F14">
-        <f ca="1"/>
         <v>-0.17177640444955003</v>
       </c>
       <c r="G14">
-        <f ca="1"/>
         <v>-3.860293841575281E-2</v>
       </c>
       <c r="H14">
-        <f ca="1"/>
         <v>-0.44430740423839737</v>
       </c>
       <c r="I14">
-        <f ca="1"/>
         <v>-2.8095716143261645E-2</v>
       </c>
       <c r="J14">
-        <f ca="1"/>
         <v>-0.34067457955070268</v>
       </c>
       <c r="K14">
-        <f ca="1"/>
         <v>-0.18652802013711733</v>
       </c>
       <c r="L14">
-        <f ca="1"/>
         <v>0.12440530659475213</v>
       </c>
       <c r="M14">
-        <f ca="1"/>
         <v>-0.16974122901339678</v>
       </c>
       <c r="N14">
-        <f ca="1"/>
         <v>-0.56042103697289336</v>
       </c>
       <c r="O14">
-        <f ca="1"/>
         <v>-3.2087723131962252E-2</v>
       </c>
       <c r="P14">
-        <f ca="1"/>
         <v>9.6197058061621196E-2</v>
       </c>
       <c r="Q14">
-        <f ca="1"/>
         <v>0.38767180112198346</v>
       </c>
       <c r="R14">
-        <f ca="1"/>
         <v>-5.4769559759800253E-2</v>
       </c>
       <c r="S14">
-        <f ca="1"/>
         <v>-3.9048376381690475E-3</v>
       </c>
       <c r="T14">
-        <f ca="1"/>
         <v>1.1732858684357035E-2</v>
       </c>
       <c r="U14">
-        <f ca="1"/>
         <v>7.7686529324904371E-4</v>
       </c>
       <c r="V14">
-        <f ca="1"/>
         <v>-7.0866652440994141E-3</v>
       </c>
       <c r="W14">
-        <f ca="1"/>
         <v>5.7731139317057803E-7</v>
       </c>
     </row>
@@ -21399,91 +21106,69 @@
         <v>3288</v>
       </c>
       <c r="B15">
-        <f ca="1"/>
         <v>0.2325150934430871</v>
       </c>
       <c r="C15">
-        <f ca="1"/>
         <v>0.17096631776072788</v>
       </c>
       <c r="D15">
-        <f ca="1"/>
         <v>4.9719910268295461E-2</v>
       </c>
       <c r="E15">
-        <f ca="1"/>
         <v>7.7068517399497757E-2</v>
       </c>
       <c r="F15">
-        <f ca="1"/>
         <v>-0.17098284480455511</v>
       </c>
       <c r="G15">
-        <f ca="1"/>
         <v>-2.9118152338549731E-2</v>
       </c>
       <c r="H15">
-        <f ca="1"/>
         <v>-0.34804923196396276</v>
       </c>
       <c r="I15">
-        <f ca="1"/>
         <v>-2.6795201434242927E-2</v>
       </c>
       <c r="J15">
-        <f ca="1"/>
         <v>-0.22045067319064074</v>
       </c>
       <c r="K15">
-        <f ca="1"/>
         <v>-6.8023689416014138E-2</v>
       </c>
       <c r="L15">
-        <f ca="1"/>
         <v>-2.4988263646566939E-2</v>
       </c>
       <c r="M15">
-        <f ca="1"/>
         <v>3.6712043313775124E-2</v>
       </c>
       <c r="N15">
-        <f ca="1"/>
         <v>5.0947915354413287E-2</v>
       </c>
       <c r="O15">
-        <f ca="1"/>
         <v>9.6160895305948554E-2</v>
       </c>
       <c r="P15">
-        <f ca="1"/>
         <v>-0.23352915527128515</v>
       </c>
       <c r="Q15">
-        <f ca="1"/>
         <v>-0.78971605319197624</v>
       </c>
       <c r="R15">
-        <f ca="1"/>
         <v>-1.4258941838031827E-2</v>
       </c>
       <c r="S15">
-        <f ca="1"/>
         <v>3.2084000707231358E-2</v>
       </c>
       <c r="T15">
-        <f ca="1"/>
         <v>9.4598558241895961E-2</v>
       </c>
       <c r="U15">
-        <f ca="1"/>
         <v>1.9393557434829199E-2</v>
       </c>
       <c r="V15">
-        <f ca="1"/>
         <v>2.3892408214219518E-2</v>
       </c>
       <c r="W15">
-        <f ca="1"/>
         <v>3.8855869376204908E-7</v>
       </c>
     </row>
@@ -21492,91 +21177,69 @@
         <v>3652</v>
       </c>
       <c r="B16">
-        <f ca="1"/>
         <v>0.22863253247402759</v>
       </c>
       <c r="C16">
-        <f ca="1"/>
         <v>0.1693545882053146</v>
       </c>
       <c r="D16">
-        <f ca="1"/>
         <v>3.0484289860192193E-2</v>
       </c>
       <c r="E16">
-        <f ca="1"/>
         <v>7.8437820083903154E-2</v>
       </c>
       <c r="F16">
-        <f ca="1"/>
         <v>-0.15056769798311798</v>
       </c>
       <c r="G16">
-        <f ca="1"/>
         <v>-4.59012541746842E-2</v>
       </c>
       <c r="H16">
-        <f ca="1"/>
         <v>-0.24321860848194468</v>
       </c>
       <c r="I16">
-        <f ca="1"/>
         <v>-8.4560039612598795E-2</v>
       </c>
       <c r="J16">
-        <f ca="1"/>
         <v>3.1858516616431881E-2</v>
       </c>
       <c r="K16">
-        <f ca="1"/>
         <v>-3.1427591564758627E-2</v>
       </c>
       <c r="L16">
-        <f ca="1"/>
         <v>-7.9328178960389378E-2</v>
       </c>
       <c r="M16">
-        <f ca="1"/>
         <v>0.10056410373316639</v>
       </c>
       <c r="N16">
-        <f ca="1"/>
         <v>0.49632007200975714</v>
       </c>
       <c r="O16">
-        <f ca="1"/>
         <v>0.11875309609591049</v>
       </c>
       <c r="P16">
-        <f ca="1"/>
         <v>8.1250346689751993E-2</v>
       </c>
       <c r="Q16">
-        <f ca="1"/>
         <v>0.19978291375768617</v>
       </c>
       <c r="R16">
-        <f ca="1"/>
         <v>-5.9594638348712752E-2</v>
       </c>
       <c r="S16">
-        <f ca="1"/>
         <v>-0.44066293164259701</v>
       </c>
       <c r="T16">
-        <f ca="1"/>
         <v>-0.54324935382842332</v>
       </c>
       <c r="U16">
-        <f ca="1"/>
         <v>4.4818231577838902E-2</v>
       </c>
       <c r="V16">
-        <f ca="1"/>
         <v>-2.5647243708412433E-2</v>
       </c>
       <c r="W16">
-        <f ca="1"/>
         <v>3.0837257397347984E-7</v>
       </c>
     </row>
@@ -21585,91 +21248,69 @@
         <v>4383</v>
       </c>
       <c r="B17">
-        <f ca="1"/>
         <v>0.22605613246896242</v>
       </c>
       <c r="C17">
-        <f ca="1"/>
         <v>0.17590098176912006</v>
       </c>
       <c r="D17">
-        <f ca="1"/>
         <v>-1.9442892650339903E-3</v>
       </c>
       <c r="E17">
-        <f ca="1"/>
         <v>7.7292079331019573E-2</v>
       </c>
       <c r="F17">
-        <f ca="1"/>
         <v>-0.14249702853804116</v>
       </c>
       <c r="G17">
-        <f ca="1"/>
         <v>-2.995370694877263E-2</v>
       </c>
       <c r="H17">
-        <f ca="1"/>
         <v>-0.20523078349062676</v>
       </c>
       <c r="I17">
-        <f ca="1"/>
         <v>-5.4305229663638141E-2</v>
       </c>
       <c r="J17">
-        <f ca="1"/>
         <v>9.787157438576588E-2</v>
       </c>
       <c r="K17">
-        <f ca="1"/>
         <v>5.1930638021816099E-2</v>
       </c>
       <c r="L17">
-        <f ca="1"/>
         <v>-6.2996120198411568E-2</v>
       </c>
       <c r="M17">
-        <f ca="1"/>
         <v>0.10614014789551877</v>
       </c>
       <c r="N17">
-        <f ca="1"/>
         <v>0.47173383259326612</v>
       </c>
       <c r="O17">
-        <f ca="1"/>
         <v>6.4068210280089286E-2</v>
       </c>
       <c r="P17">
-        <f ca="1"/>
         <v>0.11849490751063414</v>
       </c>
       <c r="Q17">
-        <f ca="1"/>
         <v>0.29325096285235758</v>
       </c>
       <c r="R17">
-        <f ca="1"/>
         <v>3.5663318488082366E-2</v>
       </c>
       <c r="S17">
-        <f ca="1"/>
         <v>0.46222425615373669</v>
       </c>
       <c r="T17">
-        <f ca="1"/>
         <v>0.52071752832686613</v>
       </c>
       <c r="U17">
-        <f ca="1"/>
         <v>-7.3797253486366413E-2</v>
       </c>
       <c r="V17">
-        <f ca="1"/>
         <v>-2.7850221460541365E-3</v>
       </c>
       <c r="W17">
-        <f ca="1"/>
         <v>2.0892319746464834E-7</v>
       </c>
     </row>
@@ -21678,91 +21319,69 @@
         <v>5479</v>
       </c>
       <c r="B18">
-        <f ca="1"/>
         <v>0.21672110836354447</v>
       </c>
       <c r="C18">
-        <f ca="1"/>
         <v>0.20498424994154932</v>
       </c>
       <c r="D18">
-        <f ca="1"/>
         <v>6.5033810903495776E-3</v>
       </c>
       <c r="E18">
-        <f ca="1"/>
         <v>4.3973538917489417E-2</v>
       </c>
       <c r="F18">
-        <f ca="1"/>
         <v>-0.11664347540191054</v>
       </c>
       <c r="G18">
-        <f ca="1"/>
         <v>-0.13103732349393554</v>
       </c>
       <c r="H18">
-        <f ca="1"/>
         <v>-9.4885812727710295E-2</v>
       </c>
       <c r="I18">
-        <f ca="1"/>
         <v>6.4391283349224853E-3</v>
       </c>
       <c r="J18">
-        <f ca="1"/>
         <v>0.54878205164242944</v>
       </c>
       <c r="K18">
-        <f ca="1"/>
         <v>0.25574397338172145</v>
       </c>
       <c r="L18">
-        <f ca="1"/>
         <v>-8.6027788996620932E-2</v>
       </c>
       <c r="M18">
-        <f ca="1"/>
         <v>-7.1592600194270266E-3</v>
       </c>
       <c r="N18">
-        <f ca="1"/>
         <v>-0.18408755975917387</v>
       </c>
       <c r="O18">
-        <f ca="1"/>
         <v>-0.66214392364104513</v>
       </c>
       <c r="P18">
-        <f ca="1"/>
         <v>-9.6301814838055472E-2</v>
       </c>
       <c r="Q18">
-        <f ca="1"/>
         <v>-6.2281660177136884E-2</v>
       </c>
       <c r="R18">
-        <f ca="1"/>
         <v>5.3646481514547088E-2</v>
       </c>
       <c r="S18">
-        <f ca="1"/>
         <v>3.2450383863054469E-4</v>
       </c>
       <c r="T18">
-        <f ca="1"/>
         <v>-8.0965203865960719E-2</v>
       </c>
       <c r="U18">
-        <f ca="1"/>
         <v>9.2206160087446101E-3</v>
       </c>
       <c r="V18">
-        <f ca="1"/>
         <v>1.4253145119032837E-2</v>
       </c>
       <c r="W18">
-        <f ca="1"/>
         <v>1.9491755180610901E-7</v>
       </c>
     </row>
@@ -21771,91 +21390,69 @@
         <v>7305</v>
       </c>
       <c r="B19">
-        <f ca="1"/>
         <v>0.21314518645015831</v>
       </c>
       <c r="C19">
-        <f ca="1"/>
         <v>0.21026398925437442</v>
       </c>
       <c r="D19">
-        <f ca="1"/>
         <v>1.840548637917597E-4</v>
       </c>
       <c r="E19">
-        <f ca="1"/>
         <v>1.1081224995891652E-4</v>
       </c>
       <c r="F19">
-        <f ca="1"/>
         <v>-0.15378530793181083</v>
       </c>
       <c r="G19">
-        <f ca="1"/>
         <v>-0.15304980345936681</v>
       </c>
       <c r="H19">
-        <f ca="1"/>
         <v>0.20981657840941131</v>
       </c>
       <c r="I19">
-        <f ca="1"/>
         <v>-1.1855634508894675E-2</v>
       </c>
       <c r="J19">
-        <f ca="1"/>
         <v>0.39219046012041514</v>
       </c>
       <c r="K19">
-        <f ca="1"/>
         <v>0.23270263500838476</v>
       </c>
       <c r="L19">
-        <f ca="1"/>
         <v>0.48972304087267454</v>
       </c>
       <c r="M19">
-        <f ca="1"/>
         <v>-6.4647714677504201E-2</v>
       </c>
       <c r="N19">
-        <f ca="1"/>
         <v>-0.2005078601041678</v>
       </c>
       <c r="O19">
-        <f ca="1"/>
         <v>0.56440957873887199</v>
       </c>
       <c r="P19">
-        <f ca="1"/>
         <v>6.264131152165138E-2</v>
       </c>
       <c r="Q19">
-        <f ca="1"/>
         <v>-5.6311442767990876E-2</v>
       </c>
       <c r="R19">
-        <f ca="1"/>
         <v>-2.2267983662325182E-2</v>
       </c>
       <c r="S19">
-        <f ca="1"/>
         <v>-2.6665043599302139E-2</v>
       </c>
       <c r="T19">
-        <f ca="1"/>
         <v>-1.4282152856290246E-3</v>
       </c>
       <c r="U19">
-        <f ca="1"/>
         <v>8.705643893063263E-3</v>
       </c>
       <c r="V19">
-        <f ca="1"/>
         <v>-2.7133750729748654E-3</v>
       </c>
       <c r="W19">
-        <f ca="1"/>
         <v>1.0661047024877866E-7</v>
       </c>
     </row>
@@ -21864,91 +21461,69 @@
         <v>9132</v>
       </c>
       <c r="B20">
-        <f ca="1"/>
         <v>0.20808747426153099</v>
       </c>
       <c r="C20">
-        <f ca="1"/>
         <v>0.21090395816972046</v>
       </c>
       <c r="D20">
-        <f ca="1"/>
         <v>-1.2662397986293024E-2</v>
       </c>
       <c r="E20">
-        <f ca="1"/>
         <v>-5.170675584982274E-2</v>
       </c>
       <c r="F20">
-        <f ca="1"/>
         <v>-0.22570812108917374</v>
       </c>
       <c r="G20">
-        <f ca="1"/>
         <v>-0.20877303081744397</v>
       </c>
       <c r="H20">
-        <f ca="1"/>
         <v>0.44928081498281797</v>
       </c>
       <c r="I20">
-        <f ca="1"/>
         <v>1.5234277971788857E-2</v>
       </c>
       <c r="J20">
-        <f ca="1"/>
         <v>5.4884536189845026E-2</v>
       </c>
       <c r="K20">
-        <f ca="1"/>
         <v>-0.39193997275988829</v>
       </c>
       <c r="L20">
-        <f ca="1"/>
         <v>-0.61192856382255401</v>
       </c>
       <c r="M20">
-        <f ca="1"/>
         <v>-0.21520599603800084</v>
       </c>
       <c r="N20">
-        <f ca="1"/>
         <v>-0.11064098154176898</v>
       </c>
       <c r="O20">
-        <f ca="1"/>
         <v>0.14615492435624261</v>
       </c>
       <c r="P20">
-        <f ca="1"/>
         <v>1.3884085616619597E-2</v>
       </c>
       <c r="Q20">
-        <f ca="1"/>
         <v>-2.5224986040383321E-3</v>
       </c>
       <c r="R20">
-        <f ca="1"/>
         <v>-1.7481033491008904E-2</v>
       </c>
       <c r="S20">
-        <f ca="1"/>
         <v>-3.4948358993882435E-3</v>
       </c>
       <c r="T20">
-        <f ca="1"/>
         <v>3.2733845599146452E-2</v>
       </c>
       <c r="U20">
-        <f ca="1"/>
         <v>-1.1681991205529782E-2</v>
       </c>
       <c r="V20">
-        <f ca="1"/>
         <v>6.5187629193448719E-3</v>
       </c>
       <c r="W20">
-        <f ca="1"/>
         <v>8.3062073723322177E-8</v>
       </c>
     </row>
@@ -21957,361 +21532,273 @@
         <v>10959</v>
       </c>
       <c r="B21">
-        <f ca="1"/>
         <v>0.2076406309581747</v>
       </c>
       <c r="C21">
-        <f ca="1"/>
         <v>0.19080616974010403</v>
       </c>
       <c r="D21">
-        <f ca="1"/>
         <v>2.6652155411923169E-2</v>
       </c>
       <c r="E21">
-        <f ca="1"/>
         <v>-6.5331706712618232E-2</v>
       </c>
       <c r="F21">
-        <f ca="1"/>
         <v>-0.15316042438780927</v>
       </c>
       <c r="G21">
-        <f ca="1"/>
         <v>-0.23568304013502334</v>
       </c>
       <c r="H21">
-        <f ca="1"/>
         <v>0.49279174849329999</v>
       </c>
       <c r="I21">
-        <f ca="1"/>
         <v>-1.1374782158500395E-2</v>
       </c>
       <c r="J21">
-        <f ca="1"/>
         <v>-0.54473130559159011</v>
       </c>
       <c r="K21">
-        <f ca="1"/>
         <v>0.1743848709394327</v>
       </c>
       <c r="L21">
-        <f ca="1"/>
         <v>0.32760613546111261</v>
       </c>
       <c r="M21">
-        <f ca="1"/>
         <v>0.11282137915496561</v>
       </c>
       <c r="N21">
-        <f ca="1"/>
         <v>0.15615681509399382</v>
       </c>
       <c r="O21">
-        <f ca="1"/>
         <v>-0.33156419648973745</v>
       </c>
       <c r="P21">
-        <f ca="1"/>
         <v>-8.8240447854751922E-2</v>
       </c>
       <c r="Q21">
-        <f ca="1"/>
         <v>4.7320013719643721E-2</v>
       </c>
       <c r="R21">
-        <f ca="1"/>
         <v>3.8040870457596583E-2</v>
       </c>
       <c r="S21">
-        <f ca="1"/>
         <v>6.2834739903622509E-3</v>
       </c>
       <c r="T21">
-        <f ca="1"/>
         <v>-2.1184124423185641E-2</v>
       </c>
       <c r="U21">
-        <f ca="1"/>
         <v>-8.6458318237975424E-4</v>
       </c>
       <c r="V21">
-        <f ca="1"/>
         <v>-6.6292076018977346E-3</v>
       </c>
       <c r="W21">
-        <f ca="1"/>
         <v>2.5005697371165935E-8</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22">
-        <f ca="1"/>
         <v>0.21010100424085917</v>
       </c>
       <c r="C22">
-        <f ca="1"/>
         <v>0.21094977403435133</v>
       </c>
       <c r="D22">
-        <f ca="1"/>
         <v>2.1539221935177408E-2</v>
       </c>
       <c r="E22">
-        <f ca="1"/>
         <v>-0.8928796114136669</v>
       </c>
       <c r="F22">
-        <f ca="1"/>
         <v>0.27802151009236786</v>
       </c>
       <c r="G22">
-        <f ca="1"/>
         <v>0.1540377550341267</v>
       </c>
       <c r="H22">
-        <f ca="1"/>
         <v>-0.10828195064520617</v>
       </c>
       <c r="I22">
-        <f ca="1"/>
         <v>3.6585810910204212E-4</v>
       </c>
       <c r="J22">
-        <f ca="1"/>
         <v>1.871704217571642E-3</v>
       </c>
       <c r="K22">
-        <f ca="1"/>
         <v>5.3016856325535915E-3</v>
       </c>
       <c r="L22">
-        <f ca="1"/>
         <v>-1.8678976654921922E-2</v>
       </c>
       <c r="M22">
-        <f ca="1"/>
         <v>8.0949802620918273E-3</v>
       </c>
       <c r="N22">
-        <f ca="1"/>
         <v>4.2294440043479705E-3</v>
       </c>
       <c r="O22">
-        <f ca="1"/>
         <v>1.3292411030695672E-2</v>
       </c>
       <c r="P22">
-        <f ca="1"/>
         <v>1.6099411583825753E-2</v>
       </c>
       <c r="Q22">
-        <f ca="1"/>
         <v>7.3048973282109598E-4</v>
       </c>
       <c r="R22">
-        <f ca="1"/>
         <v>-2.0586269556009235E-3</v>
       </c>
       <c r="S22">
-        <f ca="1"/>
         <v>-1.7030208028889899E-3</v>
       </c>
       <c r="T22">
-        <f ca="1"/>
         <v>-1.0525759527713409E-4</v>
       </c>
       <c r="U22">
-        <f ca="1"/>
         <v>8.2815567292059036E-4</v>
       </c>
       <c r="V22">
-        <f ca="1"/>
         <v>1.7138643051200844E-3</v>
       </c>
       <c r="W22">
-        <f ca="1"/>
         <v>6.1963423535820672E-9</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="C23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="I23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="K23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="L23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="M23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="N23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="O23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="P23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W23" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="C24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="G24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="H24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="I24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="J24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="K24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="L24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="M24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="N24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="O24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="P24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="Q24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="R24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="S24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="T24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="U24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="V24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
       <c r="W24" t="e">
-        <f ca="1"/>
         <v>#N/A</v>
       </c>
     </row>
